--- a/Resources/predictions.xlsx
+++ b/Resources/predictions.xlsx
@@ -495,7 +495,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>

--- a/Resources/predictions.xlsx
+++ b/Resources/predictions.xlsx
@@ -528,7 +528,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>-0.3471389473048592</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>0.1654152030781544</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>-1.372247248070886</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>1.703077654227195</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>0.677969353461168</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>1.190523503844182</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>-0.8596930976878728</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
